--- a/tabular/genus/proto-refseq-feature-locations.xlsx
+++ b/tabular/genus/proto-refseq-feature-locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B916F9-C1A4-D145-97EC-706C66499456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB4A03-DD34-184A-9126-5B83D5F588E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tabular/genus/proto-refseq-feature-locations.xlsx
+++ b/tabular/genus/proto-refseq-feature-locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB4A03-DD34-184A-9126-5B83D5F588E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA189D4-9A77-6648-BBC4-8556D0F64FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="51">
   <si>
     <t>referenceName</t>
   </si>
@@ -4103,10 +4103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1479"/>
+  <dimension ref="A1:E1480"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:XFD5"/>
+      <selection activeCell="D17" sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4181,13 +4181,13 @@
         <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1982</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4195,27 +4195,27 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4">
-        <v>2247</v>
+        <v>63</v>
       </c>
       <c r="D6" s="7">
-        <v>4403</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>2247</v>
       </c>
       <c r="D7" s="7">
-        <v>5149</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4223,13 +4223,13 @@
         <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2279</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4237,27 +4237,27 @@
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4">
-        <v>2399</v>
+        <v>114</v>
       </c>
       <c r="D9" s="7">
-        <v>4555</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
+        <v>2399</v>
       </c>
       <c r="D10" s="7">
-        <v>5075</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4265,13 +4265,13 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>2280</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4279,27 +4279,27 @@
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4">
-        <v>2388</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4547</v>
+        <v>292</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2280</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4281</v>
+        <v>2388</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4547</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4307,13 +4307,13 @@
         <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
-        <v>1833</v>
+      <c r="D14" s="4">
+        <v>4281</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4321,13 +4321,13 @@
         <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C15" s="4">
-        <v>1883</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>2272</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4335,18 +4335,28 @@
         <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1883</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>2668</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>4281</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
@@ -4383,7 +4393,6 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
-      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
@@ -4393,6 +4402,7 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
@@ -4473,11 +4483,11 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
@@ -4493,10 +4503,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
+      <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
-      <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
@@ -4529,7 +4539,6 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
-      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
@@ -4544,6 +4553,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
@@ -4665,8 +4675,9 @@
       <c r="A125" s="2"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E143" s="1"/>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="1"/>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E144" s="1"/>
@@ -4683,9 +4694,8 @@
     <row r="148" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E148" s="1"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="2"/>
-      <c r="B201" s="1"/>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E149" s="1"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
@@ -4781,10 +4791,10 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
+      <c r="B225" s="1"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
-      <c r="B226" s="1"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
@@ -4810,17 +4820,18 @@
       <c r="A232" s="2"/>
       <c r="B232" s="1"/>
     </row>
-    <row r="915" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C915" s="2"/>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1051" s="2"/>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="2"/>
+      <c r="B233" s="1"/>
+    </row>
+    <row r="916" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C916" s="2"/>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1052" s="2"/>
     </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1177" s="2"/>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1053" s="2"/>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1178" s="2"/>
@@ -4837,9 +4848,8 @@
     <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1182" s="2"/>
     </row>
-    <row r="1227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C1227" s="2"/>
-      <c r="D1227" s="10"/>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1183" s="2"/>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C1228" s="2"/>
@@ -4849,8 +4859,9 @@
       <c r="C1229" s="2"/>
       <c r="D1229" s="10"/>
     </row>
-    <row r="1231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1231" s="2"/>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1230" s="2"/>
+      <c r="D1230" s="10"/>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1232" s="2"/>
@@ -4864,8 +4875,8 @@
     <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1235" s="2"/>
     </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1254" s="2"/>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1236" s="2"/>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1255" s="2"/>
@@ -4885,8 +4896,8 @@
     <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1260" s="2"/>
     </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1262" s="2"/>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1261" s="2"/>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1263" s="2"/>
@@ -4903,8 +4914,8 @@
     <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1267" s="2"/>
     </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1319" s="2"/>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1268" s="2"/>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1320" s="2"/>
@@ -4915,8 +4926,8 @@
     <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1322" s="2"/>
     </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1324" s="2"/>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1323" s="2"/>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1325" s="2"/>
@@ -4927,8 +4938,8 @@
     <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1327" s="2"/>
     </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1362" s="2"/>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1328" s="2"/>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1363" s="2"/>
@@ -4945,12 +4956,10 @@
     <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1367" s="2"/>
     </row>
-    <row r="1409" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C1409" s="2"/>
-      <c r="D1409" s="10"/>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1368" s="2"/>
     </row>
     <row r="1410" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1410" s="2"/>
       <c r="C1410" s="2"/>
       <c r="D1410" s="10"/>
     </row>
@@ -4965,11 +4974,13 @@
       <c r="D1412" s="10"/>
     </row>
     <row r="1413" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1413" s="2"/>
       <c r="C1413" s="2"/>
       <c r="D1413" s="10"/>
     </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1476" s="2"/>
+    <row r="1414" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C1414" s="2"/>
+      <c r="D1414" s="10"/>
     </row>
     <row r="1477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1477" s="2"/>
@@ -4980,9 +4991,12 @@
     <row r="1479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1479" s="2"/>
     </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1480" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1479">
-    <sortCondition ref="A2:A1479"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1480">
+    <sortCondition ref="A2:A1480"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/genus/proto-refseq-feature-locations.xlsx
+++ b/tabular/genus/proto-refseq-feature-locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA189D4-9A77-6648-BBC4-8556D0F64FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81E09EB-99C7-8844-9FB6-B861958B6B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31520" yWindow="840" windowWidth="18940" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4105,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1480"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D17" sqref="A1:D17"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
